--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lrpap1-Lrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lrpap1-Lrp2.xlsx
@@ -543,28 +543,28 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.147963333333333</v>
+        <v>7.611809333333333</v>
       </c>
       <c r="H2">
-        <v>15.44389</v>
+        <v>22.835428</v>
       </c>
       <c r="I2">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="J2">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.01049366666666667</v>
+        <v>0.110028</v>
       </c>
       <c r="N2">
-        <v>0.031481</v>
+        <v>0.330084</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -573,16 +573,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.05402101123222222</v>
+        <v>0.837512157328</v>
       </c>
       <c r="R2">
-        <v>0.48618910109</v>
+        <v>7.537609415952</v>
       </c>
       <c r="S2">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="T2">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,22 +611,22 @@
         <v>31.579463</v>
       </c>
       <c r="I3">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="J3">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.01049366666666667</v>
+        <v>0.110028</v>
       </c>
       <c r="N3">
-        <v>0.031481</v>
+        <v>0.330084</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -635,16 +635,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.1104614527447778</v>
+        <v>1.158208384988</v>
       </c>
       <c r="R3">
-        <v>0.994153074703</v>
+        <v>10.423875464892</v>
       </c>
       <c r="S3">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="T3">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,28 +667,28 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.86906433333333</v>
+        <v>19.26381566666667</v>
       </c>
       <c r="H4">
-        <v>47.607193</v>
+        <v>57.791447</v>
       </c>
       <c r="I4">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="J4">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.01049366666666667</v>
+        <v>0.110028</v>
       </c>
       <c r="N4">
-        <v>0.031481</v>
+        <v>0.330084</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -697,16 +697,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.1665246714258889</v>
+        <v>2.119559110172</v>
       </c>
       <c r="R4">
-        <v>1.498722042833</v>
+        <v>19.076031991548</v>
       </c>
       <c r="S4">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="T4">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,28 +729,28 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.850633666666667</v>
+        <v>3.278219666666667</v>
       </c>
       <c r="H5">
-        <v>17.551901</v>
+        <v>9.834659</v>
       </c>
       <c r="I5">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638807</v>
       </c>
       <c r="J5">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638808</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.01049366666666667</v>
+        <v>0.110028</v>
       </c>
       <c r="N5">
-        <v>0.031481</v>
+        <v>0.330084</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -759,16 +759,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.06139459948677778</v>
+        <v>0.360695953484</v>
       </c>
       <c r="R5">
-        <v>0.5525513953810001</v>
+        <v>3.246263581356</v>
       </c>
       <c r="S5">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638807</v>
       </c>
       <c r="T5">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638808</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,28 +791,28 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.843775333333333</v>
+        <v>5.160004333333333</v>
       </c>
       <c r="H6">
-        <v>17.531326</v>
+        <v>15.480013</v>
       </c>
       <c r="I6">
-        <v>0.1001359112235315</v>
+        <v>0.07691417928547969</v>
       </c>
       <c r="J6">
-        <v>0.1001359112235316</v>
+        <v>0.07691417928547971</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.01049366666666667</v>
+        <v>0.110028</v>
       </c>
       <c r="N6">
-        <v>0.031481</v>
+        <v>0.330084</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -821,16 +821,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.06132263042288889</v>
+        <v>0.567744956788</v>
       </c>
       <c r="R6">
-        <v>0.551903673806</v>
+        <v>5.109704611092</v>
       </c>
       <c r="S6">
-        <v>0.1001359112235315</v>
+        <v>0.07691417928547969</v>
       </c>
       <c r="T6">
-        <v>0.1001359112235316</v>
+        <v>0.07691417928547971</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,28 +853,28 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.12051333333334</v>
+        <v>21.24747966666667</v>
       </c>
       <c r="H7">
-        <v>45.36154000000001</v>
+        <v>63.742439</v>
       </c>
       <c r="I7">
-        <v>0.259097294888172</v>
+        <v>0.316711451168662</v>
       </c>
       <c r="J7">
-        <v>0.259097294888172</v>
+        <v>0.3167114511686621</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.01049366666666667</v>
+        <v>0.110028</v>
       </c>
       <c r="N7">
-        <v>0.031481</v>
+        <v>0.330084</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -883,16 +883,16 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>0.1586696267488889</v>
+        <v>2.337817692764</v>
       </c>
       <c r="R7">
-        <v>1.42802664074</v>
+        <v>21.040359234876</v>
       </c>
       <c r="S7">
-        <v>0.259097294888172</v>
+        <v>0.316711451168662</v>
       </c>
       <c r="T7">
-        <v>0.259097294888172</v>
+        <v>0.3167114511686621</v>
       </c>
     </row>
   </sheetData>
